--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_83.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_83.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(20.08, 22.56)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1402173913043478</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[('0:00:20.420000', '0:00:22.860000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(41.32, 46.64)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2444444444444444</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F/5', 'Eb/5', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'C', 'G', 'G']]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.324217, 15.172562)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(62.486724, 70.753028)]</t>
+          <t>[('0:01:07.760000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1405405405405405</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:58.780000', '0:02:06.080000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (11.7, 20.02)]</t>
+          <t>[('0:01:03.100000', '0:01:04.320000'), ('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:01:11.700000', '0:01:18.400000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:14.200000', '0:00:18.800000'), ('0:00:31.740000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(62.1, 71.78)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:00:36.040000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:09.480000', '0:00:33.680000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.560000', '0:00:16.360000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07229872881355932</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A/5', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(79.713866, 84.787426)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(5.370181, 9.236303)]</t>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
+          <t>[('0:00:33', '0:00:48.220000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_162</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(10.2, 18.84)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(21.08, 24.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
